--- a/データベース定義書.xlsx
+++ b/データベース定義書.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="114">
   <si>
     <t>主キー</t>
   </si>
@@ -88,16 +88,13 @@
     <t>秘密の質問ID</t>
   </si>
   <si>
-    <t>question</t>
+    <t>questionID</t>
   </si>
   <si>
     <t>秘密の回答</t>
   </si>
   <si>
     <t>answer</t>
-  </si>
-  <si>
-    <t>varchar(255)</t>
   </si>
   <si>
     <t>登録日</t>
@@ -127,13 +124,13 @@
     <t>投稿者コメント</t>
   </si>
   <si>
-    <t>userCommet</t>
+    <t>ownerCommet</t>
   </si>
   <si>
     <t>投稿日</t>
   </si>
   <si>
-    <t>time</t>
+    <t>submitDate</t>
   </si>
   <si>
     <t>カテゴリーID</t>
@@ -197,9 +194,6 @@
   </si>
   <si>
     <t>質問ID</t>
-  </si>
-  <si>
-    <t>questionID</t>
   </si>
   <si>
     <t>質問</t>
@@ -275,9 +269,6 @@
     <t>ownerComment</t>
   </si>
   <si>
-    <t>submitDate</t>
-  </si>
-  <si>
     <t>パソコンデスク</t>
   </si>
   <si>
@@ -305,6 +296,15 @@
     <t>evaluation_t</t>
   </si>
   <si>
+    <t>comment_t</t>
+  </si>
+  <si>
+    <t>評価ユーザID</t>
+  </si>
+  <si>
+    <t>coomentID</t>
+  </si>
+  <si>
     <t>すごいね</t>
   </si>
   <si>
@@ -312,15 +312,6 @@
   </si>
   <si>
     <t>きれい</t>
-  </si>
-  <si>
-    <t>comment_t</t>
-  </si>
-  <si>
-    <t>評価ユーザID</t>
-  </si>
-  <si>
-    <t>coomentID</t>
   </si>
   <si>
     <t>category_t</t>
@@ -351,6 +342,9 @@
   </si>
   <si>
     <t>質問内容</t>
+  </si>
+  <si>
+    <t>question</t>
   </si>
   <si>
     <t>子供の頃のあだ名はなんですか.</t>
@@ -674,19 +668,19 @@
         <v>25</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="G8" s="1"/>
     </row>
     <row r="9">
       <c r="C9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>16</v>
@@ -696,7 +690,7 @@
       <c r="A10" s="6"/>
       <c r="B10" s="7"/>
       <c r="C10" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
@@ -726,10 +720,10 @@
         <v>8</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>11</v>
@@ -741,10 +735,10 @@
     <row r="12">
       <c r="B12" s="5"/>
       <c r="C12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>15</v>
@@ -754,10 +748,10 @@
     <row r="13">
       <c r="B13" s="5"/>
       <c r="C13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>21</v>
@@ -766,13 +760,13 @@
     </row>
     <row r="14">
       <c r="C14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="E14" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>16</v>
@@ -800,10 +794,10 @@
         <v>8</v>
       </c>
       <c r="C16" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>11</v>
@@ -816,7 +810,7 @@
       <c r="A17" s="7"/>
       <c r="B17" s="7"/>
       <c r="C17" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
@@ -863,10 +857,10 @@
         <v>8</v>
       </c>
       <c r="C19" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>11</v>
@@ -877,10 +871,10 @@
     </row>
     <row r="20">
       <c r="C20" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>11</v>
@@ -888,10 +882,10 @@
     </row>
     <row r="21">
       <c r="C21" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>11</v>
@@ -899,10 +893,10 @@
     </row>
     <row r="22">
       <c r="C22" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>11</v>
@@ -912,7 +906,7 @@
       <c r="A23" s="7"/>
       <c r="B23" s="7"/>
       <c r="C23" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
@@ -942,10 +936,10 @@
         <v>8</v>
       </c>
       <c r="C24" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>50</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>11</v>
@@ -956,10 +950,10 @@
     </row>
     <row r="25">
       <c r="C25" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>52</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>21</v>
@@ -990,10 +984,10 @@
         <v>8</v>
       </c>
       <c r="C27" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>11</v>
@@ -1006,7 +1000,7 @@
       <c r="A28" s="7"/>
       <c r="B28" s="7"/>
       <c r="C28" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
@@ -1036,37 +1030,37 @@
         <v>8</v>
       </c>
       <c r="C29" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="30">
       <c r="C30" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D30" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>56</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="7"/>
       <c r="B31" s="7"/>
       <c r="C31" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
@@ -1096,30 +1090,30 @@
         <v>8</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="33">
       <c r="C33" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1144,10 +1138,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C1" s="10"/>
       <c r="D1" s="10"/>
@@ -1158,10 +1152,10 @@
     </row>
     <row r="2">
       <c r="A2" s="9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
@@ -1172,21 +1166,21 @@
     </row>
     <row r="3">
       <c r="A3" s="9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
       <c r="F3" s="9" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
     </row>
     <row r="4">
       <c r="A4" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>11</v>
@@ -1207,7 +1201,7 @@
         <v>21</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" ht="33.75" customHeight="1">
@@ -1215,7 +1209,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>16</v>
@@ -1249,13 +1243,13 @@
         <v>19</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" ht="18.0" customHeight="1">
@@ -1275,13 +1269,13 @@
         <v>20</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="G7" s="9" t="s">
         <v>25</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8">
@@ -1290,22 +1284,22 @@
         <v>1.0</v>
       </c>
       <c r="C8" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E8" s="9" t="s">
         <v>72</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>74</v>
       </c>
       <c r="F8" s="9">
         <v>1.0</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9">
@@ -1314,22 +1308,22 @@
         <v>2.0</v>
       </c>
       <c r="C9" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="E9" s="9" t="s">
         <v>77</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>79</v>
       </c>
       <c r="F9" s="9">
         <v>5.0</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10">
@@ -11321,10 +11315,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C1" s="10"/>
       <c r="D1" s="10"/>
@@ -11334,10 +11328,10 @@
     </row>
     <row r="2">
       <c r="A2" s="9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
@@ -11347,22 +11341,22 @@
     </row>
     <row r="3">
       <c r="A3" s="9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
       <c r="F3" s="9" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>11</v>
@@ -11374,7 +11368,7 @@
         <v>21</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F4" s="9" t="s">
         <v>11</v>
@@ -11388,7 +11382,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>16</v>
@@ -11409,19 +11403,19 @@
         <v>2</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G6" s="9" t="s">
         <v>9</v>
@@ -11432,19 +11426,19 @@
         <v>3</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>85</v>
+        <v>37</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G7" s="9" t="s">
         <v>10</v>
@@ -11455,13 +11449,13 @@
         <v>1.0</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F8" s="9">
         <v>1.0</v>
@@ -11475,13 +11469,13 @@
         <v>2.0</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D9" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="E9" s="9" t="s">
         <v>87</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>90</v>
       </c>
       <c r="F9" s="9">
         <v>2.0</v>
@@ -11495,13 +11489,13 @@
         <v>3.0</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F10" s="9">
         <v>3.0</v>
@@ -19449,10 +19443,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C1" s="10"/>
       <c r="D1" s="10"/>
@@ -19463,7 +19457,7 @@
     </row>
     <row r="2">
       <c r="A2" s="9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
@@ -19475,13 +19469,13 @@
     </row>
     <row r="3">
       <c r="A3" s="9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
@@ -19491,7 +19485,7 @@
     </row>
     <row r="4">
       <c r="A4" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>11</v>
@@ -19535,16 +19529,16 @@
         <v>9</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
@@ -19557,16 +19551,16 @@
         <v>10</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
@@ -19575,8 +19569,8 @@
       <c r="B8" s="5">
         <v>1.0</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>95</v>
+      <c r="C8" s="5">
+        <v>1.0</v>
       </c>
       <c r="D8" s="9">
         <v>41.0</v>
@@ -19590,10 +19584,10 @@
     </row>
     <row r="9">
       <c r="B9" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="C9" s="5">
         <v>2.0</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>96</v>
       </c>
       <c r="D9" s="9">
         <v>1.0</v>
@@ -19607,10 +19601,10 @@
     </row>
     <row r="10">
       <c r="B10" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="C10" s="5">
         <v>3.0</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>97</v>
       </c>
       <c r="D10" s="9">
         <v>2.0</v>
@@ -19647,10 +19641,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C1" s="10"/>
       <c r="D1" s="10"/>
@@ -19661,10 +19655,10 @@
     </row>
     <row r="2">
       <c r="A2" s="9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
@@ -19675,15 +19669,15 @@
     </row>
     <row r="3">
       <c r="A3" s="9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
       <c r="D3" s="9" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F3" s="9"/>
       <c r="G3" s="9"/>
@@ -19691,7 +19685,7 @@
     </row>
     <row r="4">
       <c r="A4" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>11</v>
@@ -19714,7 +19708,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>16</v>
@@ -19734,16 +19728,16 @@
         <v>2</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
@@ -19754,13 +19748,13 @@
         <v>3</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E7" s="9" t="s">
         <v>10</v>
@@ -19836,32 +19830,32 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C1" s="13"/>
     </row>
     <row r="2">
       <c r="A2" s="9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C2" s="14"/>
     </row>
     <row r="3">
       <c r="A3" s="9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B3" s="14"/>
       <c r="C3" s="14"/>
     </row>
     <row r="4">
       <c r="A4" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>11</v>
@@ -19882,10 +19876,10 @@
         <v>2</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7">
@@ -19893,10 +19887,10 @@
         <v>3</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8">
@@ -19904,7 +19898,7 @@
         <v>1.0</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9">
@@ -19912,7 +19906,7 @@
         <v>2.0</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10">
@@ -19920,7 +19914,7 @@
         <v>3.0</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11">
@@ -19928,7 +19922,7 @@
         <v>4.0</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="12">
@@ -19936,7 +19930,7 @@
         <v>5.0</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="13">
@@ -19967,10 +19961,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C1" s="15"/>
       <c r="D1" s="15"/>
@@ -19978,21 +19972,21 @@
     </row>
     <row r="2">
       <c r="A2" s="9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B3" s="14"/>
     </row>
     <row r="4">
       <c r="A4" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>11</v>
@@ -20013,10 +20007,10 @@
         <v>2</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7">
@@ -20024,10 +20018,10 @@
         <v>3</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>23</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8">
@@ -20035,7 +20029,7 @@
         <v>1.0</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9">
@@ -20043,7 +20037,7 @@
         <v>2.0</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10">
@@ -20051,7 +20045,7 @@
         <v>3.0</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="11">
@@ -20059,7 +20053,7 @@
         <v>4.0</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="12">
@@ -20067,7 +20061,7 @@
         <v>5.0</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="13">
